--- a/examples/Abatement/Data/techdata_categoryexperiment_EOP.xlsx
+++ b/examples/Abatement/Data/techdata_categoryexperiment_EOP.xlsx
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +517,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>0.02</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -603,7 +603,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
